--- a/data/AI Threshold Experiment - all categories.xlsx
+++ b/data/AI Threshold Experiment - all categories.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F4C637B-A1C6-4AC3-A610-3E230E22485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D9B2114-B122-46A4-BA90-359411BDA54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="60">
   <si>
     <t>n_trainer_images</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>P5270955</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -582,8 +579,8 @@
   <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1:K1048576"/>
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2681,9 +2678,6 @@
       <c r="J63">
         <v>5</v>
       </c>
-      <c r="L63" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64">
@@ -3947,7 +3941,7 @@
         <v>300</v>
       </c>
       <c r="B102">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C102">
         <v>50</v>
@@ -3961,13 +3955,25 @@
       <c r="F102" t="s">
         <v>10</v>
       </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>50</v>
+      </c>
+      <c r="I102">
+        <v>77</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
         <v>300</v>
       </c>
       <c r="B103">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C103">
         <v>50</v>
@@ -3981,13 +3987,25 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>50</v>
+      </c>
+      <c r="I103">
+        <v>79</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
         <v>300</v>
       </c>
       <c r="B104">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C104">
         <v>50</v>
@@ -4001,13 +4019,25 @@
       <c r="F104" t="s">
         <v>12</v>
       </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>50</v>
+      </c>
+      <c r="I104">
+        <v>70</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
         <v>300</v>
       </c>
       <c r="B105">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C105">
         <v>50</v>
@@ -4021,13 +4051,25 @@
       <c r="F105" t="s">
         <v>13</v>
       </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>50</v>
+      </c>
+      <c r="I105">
+        <v>68</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
         <v>300</v>
       </c>
       <c r="B106">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C106">
         <v>50</v>
@@ -4041,13 +4083,25 @@
       <c r="F106" t="s">
         <v>14</v>
       </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>50</v>
+      </c>
+      <c r="I106">
+        <v>68</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
         <v>300</v>
       </c>
       <c r="B107">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C107">
         <v>50</v>
@@ -4061,13 +4115,25 @@
       <c r="F107" t="s">
         <v>15</v>
       </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>50</v>
+      </c>
+      <c r="I107">
+        <v>64</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2">
         <v>300</v>
       </c>
-      <c r="B108" s="2">
-        <v>87</v>
+      <c r="B108">
+        <v>82</v>
       </c>
       <c r="C108" s="2">
         <v>50</v>
@@ -4081,13 +4147,25 @@
       <c r="F108" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>50</v>
+      </c>
+      <c r="I108">
+        <v>59</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
         <v>300</v>
       </c>
       <c r="B109">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C109">
         <v>50</v>
@@ -4101,13 +4179,25 @@
       <c r="F109" t="s">
         <v>17</v>
       </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>50</v>
+      </c>
+      <c r="I109">
+        <v>80</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
         <v>300</v>
       </c>
       <c r="B110">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C110">
         <v>50</v>
@@ -4121,13 +4211,25 @@
       <c r="F110" t="s">
         <v>18</v>
       </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>50</v>
+      </c>
+      <c r="I110">
+        <v>84</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
         <v>300</v>
       </c>
       <c r="B111">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C111">
         <v>50</v>
@@ -4141,13 +4243,25 @@
       <c r="F111" t="s">
         <v>19</v>
       </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="I111">
+        <v>79</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
         <v>300</v>
       </c>
       <c r="B112">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C112">
         <v>50</v>
@@ -4161,13 +4275,25 @@
       <c r="F112" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>50</v>
+      </c>
+      <c r="I112">
+        <v>72</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>300</v>
       </c>
       <c r="B113">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C113">
         <v>50</v>
@@ -4181,13 +4307,25 @@
       <c r="F113" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>50</v>
+      </c>
+      <c r="I113">
+        <v>70</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>300</v>
       </c>
       <c r="B114">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C114">
         <v>50</v>
@@ -4201,13 +4339,25 @@
       <c r="F114" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>50</v>
+      </c>
+      <c r="I114">
+        <v>74</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>300</v>
       </c>
       <c r="B115">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C115">
         <v>50</v>
@@ -4221,13 +4371,25 @@
       <c r="F115" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>50</v>
+      </c>
+      <c r="I115">
+        <v>58</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>300</v>
       </c>
       <c r="B116">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C116">
         <v>50</v>
@@ -4241,13 +4403,25 @@
       <c r="F116" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>50</v>
+      </c>
+      <c r="I116">
+        <v>103</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>300</v>
       </c>
       <c r="B117">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C117">
         <v>50</v>
@@ -4261,13 +4435,25 @@
       <c r="F117" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>50</v>
+      </c>
+      <c r="I117">
+        <v>77</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>300</v>
       </c>
       <c r="B118">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C118">
         <v>50</v>
@@ -4281,13 +4467,25 @@
       <c r="F118" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>50</v>
+      </c>
+      <c r="I118">
+        <v>61</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>300</v>
       </c>
       <c r="B119">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C119">
         <v>50</v>
@@ -4301,13 +4499,25 @@
       <c r="F119" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>50</v>
+      </c>
+      <c r="I119">
+        <v>88</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>300</v>
       </c>
       <c r="B120">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C120">
         <v>50</v>
@@ -4321,13 +4531,25 @@
       <c r="F120" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>50</v>
+      </c>
+      <c r="I120">
+        <v>98</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>300</v>
       </c>
       <c r="B121">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C121">
         <v>50</v>
@@ -4341,13 +4563,25 @@
       <c r="F121" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>50</v>
+      </c>
+      <c r="I121">
+        <v>87</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>300</v>
       </c>
       <c r="B122">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C122">
         <v>50</v>
@@ -4361,13 +4595,25 @@
       <c r="F122" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>50</v>
+      </c>
+      <c r="I122">
+        <v>70</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>300</v>
       </c>
       <c r="B123">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C123">
         <v>50</v>
@@ -4381,13 +4627,25 @@
       <c r="F123" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>50</v>
+      </c>
+      <c r="I123">
+        <v>79</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>300</v>
       </c>
       <c r="B124">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C124">
         <v>50</v>
@@ -4401,13 +4659,25 @@
       <c r="F124" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>50</v>
+      </c>
+      <c r="I124">
+        <v>80</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>300</v>
       </c>
       <c r="B125">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C125">
         <v>50</v>
@@ -4421,13 +4691,25 @@
       <c r="F125" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>50</v>
+      </c>
+      <c r="I125">
+        <v>91</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>300</v>
       </c>
       <c r="B126">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C126">
         <v>50</v>
@@ -4441,13 +4723,25 @@
       <c r="F126" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>50</v>
+      </c>
+      <c r="I126">
+        <v>91</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>300</v>
       </c>
       <c r="B127">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C127">
         <v>50</v>
@@ -4461,13 +4755,25 @@
       <c r="F127" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>50</v>
+      </c>
+      <c r="I127">
+        <v>82</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>300</v>
       </c>
       <c r="B128">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C128">
         <v>50</v>
@@ -4481,13 +4787,25 @@
       <c r="F128" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>50</v>
+      </c>
+      <c r="I128">
+        <v>64</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>300</v>
       </c>
       <c r="B129">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C129">
         <v>50</v>
@@ -4501,13 +4819,25 @@
       <c r="F129" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>50</v>
+      </c>
+      <c r="I129">
+        <v>76</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>300</v>
       </c>
       <c r="B130">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C130">
         <v>50</v>
@@ -4521,13 +4851,25 @@
       <c r="F130" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>50</v>
+      </c>
+      <c r="I130">
+        <v>80</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>300</v>
       </c>
       <c r="B131">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C131">
         <v>50</v>
@@ -4541,13 +4883,25 @@
       <c r="F131" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>50</v>
+      </c>
+      <c r="I131">
+        <v>81</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>300</v>
       </c>
       <c r="B132">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C132">
         <v>50</v>
@@ -4561,13 +4915,25 @@
       <c r="F132" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>50</v>
+      </c>
+      <c r="I132">
+        <v>52</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>300</v>
       </c>
       <c r="B133">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C133">
         <v>50</v>
@@ -4581,13 +4947,25 @@
       <c r="F133" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>50</v>
+      </c>
+      <c r="I133">
+        <v>43</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>300</v>
       </c>
       <c r="B134">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C134">
         <v>50</v>
@@ -4601,13 +4979,25 @@
       <c r="F134" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>50</v>
+      </c>
+      <c r="I134">
+        <v>47</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>300</v>
       </c>
       <c r="B135">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C135">
         <v>50</v>
@@ -4621,13 +5011,25 @@
       <c r="F135" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>50</v>
+      </c>
+      <c r="I135">
+        <v>79</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>300</v>
       </c>
       <c r="B136">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C136">
         <v>50</v>
@@ -4641,13 +5043,25 @@
       <c r="F136" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>50</v>
+      </c>
+      <c r="I136">
+        <v>77</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>300</v>
       </c>
       <c r="B137">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C137">
         <v>50</v>
@@ -4661,13 +5075,25 @@
       <c r="F137" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>50</v>
+      </c>
+      <c r="I137">
+        <v>69</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>300</v>
       </c>
       <c r="B138">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C138">
         <v>50</v>
@@ -4681,13 +5107,25 @@
       <c r="F138" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>50</v>
+      </c>
+      <c r="I138">
+        <v>64</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>300</v>
       </c>
       <c r="B139">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C139">
         <v>50</v>
@@ -4701,13 +5139,25 @@
       <c r="F139" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>50</v>
+      </c>
+      <c r="I139">
+        <v>76</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>300</v>
       </c>
       <c r="B140">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C140">
         <v>50</v>
@@ -4721,13 +5171,25 @@
       <c r="F140" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>50</v>
+      </c>
+      <c r="I140">
+        <v>120</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>300</v>
       </c>
       <c r="B141">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C141">
         <v>50</v>
@@ -4741,13 +5203,25 @@
       <c r="F141" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>50</v>
+      </c>
+      <c r="I141">
+        <v>61</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>300</v>
       </c>
       <c r="B142">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C142">
         <v>50</v>
@@ -4761,13 +5235,25 @@
       <c r="F142" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>50</v>
+      </c>
+      <c r="I142">
+        <v>82</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>300</v>
       </c>
       <c r="B143">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C143">
         <v>50</v>
@@ -4781,13 +5267,25 @@
       <c r="F143" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>50</v>
+      </c>
+      <c r="I143">
+        <v>58</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>300</v>
       </c>
       <c r="B144">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C144">
         <v>50</v>
@@ -4801,13 +5299,25 @@
       <c r="F144" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>50</v>
+      </c>
+      <c r="I144">
+        <v>85</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>300</v>
       </c>
       <c r="B145">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C145">
         <v>50</v>
@@ -4821,13 +5331,25 @@
       <c r="F145" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>50</v>
+      </c>
+      <c r="I145">
+        <v>64</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>300</v>
       </c>
       <c r="B146">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C146">
         <v>50</v>
@@ -4841,13 +5363,25 @@
       <c r="F146" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>50</v>
+      </c>
+      <c r="I146">
+        <v>90</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>300</v>
       </c>
       <c r="B147">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C147">
         <v>50</v>
@@ -4861,13 +5395,25 @@
       <c r="F147" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>50</v>
+      </c>
+      <c r="I147">
+        <v>76</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>300</v>
       </c>
       <c r="B148">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C148">
         <v>50</v>
@@ -4881,13 +5427,25 @@
       <c r="F148" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>50</v>
+      </c>
+      <c r="I148">
+        <v>56</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>300</v>
       </c>
       <c r="B149">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C149">
         <v>50</v>
@@ -4901,13 +5459,25 @@
       <c r="F149" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>50</v>
+      </c>
+      <c r="I149">
+        <v>62</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>300</v>
       </c>
       <c r="B150">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C150">
         <v>50</v>
@@ -4921,13 +5491,25 @@
       <c r="F150" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" s="1" customFormat="1">
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>50</v>
+      </c>
+      <c r="I150">
+        <v>80</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" s="1" customFormat="1">
       <c r="A151" s="1">
         <v>300</v>
       </c>
       <c r="B151" s="1">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C151" s="1">
         <v>50</v>
@@ -4940,6 +5522,18 @@
       </c>
       <c r="F151" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="G151" s="1">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1">
+        <v>50</v>
+      </c>
+      <c r="I151" s="1">
+        <v>90</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
